--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1044.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1044.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.937423805135309</v>
+        <v>0.8591253757476807</v>
       </c>
       <c r="B1">
-        <v>2.76224858532346</v>
+        <v>1.702115297317505</v>
       </c>
       <c r="C1">
-        <v>2.28655409264461</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.073367319014908</v>
+        <v>1.891545057296753</v>
       </c>
       <c r="E1">
-        <v>1.706331233442244</v>
+        <v>1.128319501876831</v>
       </c>
     </row>
   </sheetData>
